--- a/Team-Data/2007-08/2-9-2007-08.xlsx
+++ b/Team-Data/2007-08/2-9-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="n">
         <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>0.458</v>
+        <v>0.468</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -684,49 +751,49 @@
         <v>35</v>
       </c>
       <c r="J2" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="K2" t="n">
-        <v>0.442</v>
+        <v>0.444</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M2" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.318</v>
+        <v>0.321</v>
       </c>
       <c r="O2" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="P2" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R2" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S2" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T2" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U2" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V2" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W2" t="n">
         <v>7.9</v>
       </c>
       <c r="X2" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y2" t="n">
         <v>5.4</v>
@@ -738,19 +805,19 @@
         <v>22</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.5</v>
+        <v>-1.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG2" t="n">
         <v>18</v>
@@ -759,13 +826,13 @@
         <v>3</v>
       </c>
       <c r="AI2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK2" t="n">
         <v>21</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>22</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
@@ -786,19 +853,19 @@
         <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AS2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT2" t="n">
         <v>15</v>
       </c>
       <c r="AU2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AV2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AW2" t="n">
         <v>8</v>
@@ -813,13 +880,13 @@
         <v>17</v>
       </c>
       <c r="BA2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB2" t="n">
         <v>22</v>
       </c>
       <c r="BC2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>10.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -971,7 +1038,7 @@
         <v>26</v>
       </c>
       <c r="AS3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT3" t="n">
         <v>20</v>
@@ -980,13 +1047,13 @@
         <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY3" t="n">
         <v>16</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -1108,13 +1175,13 @@
         <v>-4.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG4" t="n">
         <v>24</v>
@@ -1156,7 +1223,7 @@
         <v>25</v>
       </c>
       <c r="AT4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU4" t="n">
         <v>10</v>
@@ -1168,7 +1235,7 @@
         <v>16</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
@@ -1183,7 +1250,7 @@
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="n">
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4</v>
+        <v>0.408</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="J5" t="n">
-        <v>83.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.424</v>
+        <v>0.425</v>
       </c>
       <c r="L5" t="n">
         <v>5.4</v>
@@ -1242,31 +1309,31 @@
         <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O5" t="n">
         <v>18.1</v>
       </c>
       <c r="P5" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.743</v>
+        <v>0.745</v>
       </c>
       <c r="R5" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="S5" t="n">
         <v>30</v>
       </c>
       <c r="T5" t="n">
-        <v>43.5</v>
+        <v>43.7</v>
       </c>
       <c r="U5" t="n">
         <v>21.2</v>
       </c>
       <c r="V5" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W5" t="n">
         <v>7.6</v>
@@ -1278,31 +1345,31 @@
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
         <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.8</v>
+        <v>95</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.8</v>
+        <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG5" t="n">
         <v>20</v>
       </c>
-      <c r="AG5" t="n">
-        <v>22</v>
-      </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>25</v>
@@ -1320,7 +1387,7 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
         <v>19</v>
@@ -1347,7 +1414,7 @@
         <v>12</v>
       </c>
       <c r="AW5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX5" t="n">
         <v>14</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1487,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="AI6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
         <v>9</v>
@@ -1517,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT6" t="n">
         <v>5</v>
@@ -1541,7 +1608,7 @@
         <v>21</v>
       </c>
       <c r="BA6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>4</v>
@@ -1684,19 +1751,19 @@
         <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO7" t="n">
         <v>7</v>
       </c>
       <c r="AP7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS7" t="n">
         <v>8</v>
@@ -1714,7 +1781,7 @@
         <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY7" t="n">
         <v>6</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,7 +1945,7 @@
         <v>13</v>
       </c>
       <c r="AR8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2048,7 +2115,7 @@
         <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO9" t="n">
         <v>14</v>
@@ -2060,13 +2127,13 @@
         <v>14</v>
       </c>
       <c r="AR9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU9" t="n">
         <v>9</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -2122,70 +2189,70 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" t="n">
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6</v>
+        <v>0.592</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="J10" t="n">
-        <v>88.59999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L10" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M10" t="n">
         <v>27.6</v>
       </c>
       <c r="N10" t="n">
-        <v>0.352</v>
+        <v>0.355</v>
       </c>
       <c r="O10" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="P10" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.75</v>
+        <v>0.753</v>
       </c>
       <c r="R10" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S10" t="n">
         <v>30.1</v>
       </c>
       <c r="T10" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U10" t="n">
         <v>23</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W10" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z10" t="n">
         <v>23.4</v>
@@ -2194,16 +2261,16 @@
         <v>22.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>109.5</v>
+        <v>109.6</v>
       </c>
       <c r="AC10" t="n">
         <v>2.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
         <v>10</v>
@@ -2212,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2239,7 +2306,7 @@
         <v>13</v>
       </c>
       <c r="AQ10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AR10" t="n">
         <v>9</v>
@@ -2248,7 +2315,7 @@
         <v>17</v>
       </c>
       <c r="AT10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
@@ -2260,7 +2327,7 @@
         <v>3</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY10" t="n">
         <v>19</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.592</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J11" t="n">
         <v>81.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.447</v>
+        <v>0.445</v>
       </c>
       <c r="L11" t="n">
         <v>6.7</v>
@@ -2340,7 +2407,7 @@
         <v>16.4</v>
       </c>
       <c r="P11" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q11" t="n">
         <v>0.727</v>
@@ -2355,37 +2422,37 @@
         <v>44.3</v>
       </c>
       <c r="U11" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="V11" t="n">
         <v>14.7</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X11" t="n">
         <v>5.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA11" t="n">
         <v>20.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>95.90000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
         <v>10</v>
@@ -2406,7 +2473,7 @@
         <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM11" t="n">
         <v>8</v>
@@ -2415,7 +2482,7 @@
         <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AP11" t="n">
         <v>24</v>
@@ -2433,19 +2500,19 @@
         <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AV11" t="n">
         <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX11" t="n">
         <v>4</v>
       </c>
       <c r="AY11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ11" t="n">
         <v>6</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -2486,49 +2553,49 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" t="n">
         <v>30</v>
       </c>
       <c r="G12" t="n">
-        <v>0.412</v>
+        <v>0.4</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J12" t="n">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L12" t="n">
         <v>8.9</v>
       </c>
       <c r="M12" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.364</v>
+        <v>0.366</v>
       </c>
       <c r="O12" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>23.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R12" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S12" t="n">
         <v>32.5</v>
@@ -2537,10 +2604,10 @@
         <v>43.9</v>
       </c>
       <c r="U12" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="V12" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="W12" t="n">
         <v>7.7</v>
@@ -2552,7 +2619,7 @@
         <v>5.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="AA12" t="n">
         <v>21.6</v>
@@ -2561,22 +2628,22 @@
         <v>103.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.2</v>
+        <v>-2.4</v>
       </c>
       <c r="AD12" t="n">
         <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>7</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
         <v>4</v>
@@ -2597,7 +2664,7 @@
         <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
@@ -2606,7 +2673,7 @@
         <v>12</v>
       </c>
       <c r="AR12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS12" t="n">
         <v>5</v>
@@ -2618,7 +2685,7 @@
         <v>6</v>
       </c>
       <c r="AV12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" t="n">
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" t="n">
-        <v>0.333</v>
+        <v>0.34</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
       </c>
       <c r="I13" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="J13" t="n">
-        <v>78.90000000000001</v>
+        <v>79</v>
       </c>
       <c r="K13" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L13" t="n">
         <v>4.3</v>
@@ -2701,10 +2768,10 @@
         <v>0.342</v>
       </c>
       <c r="O13" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="P13" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="Q13" t="n">
         <v>0.788</v>
@@ -2713,13 +2780,13 @@
         <v>9.4</v>
       </c>
       <c r="S13" t="n">
-        <v>31</v>
+        <v>31.3</v>
       </c>
       <c r="T13" t="n">
-        <v>40.5</v>
+        <v>40.7</v>
       </c>
       <c r="U13" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V13" t="n">
         <v>14.5</v>
@@ -2728,25 +2795,25 @@
         <v>6.9</v>
       </c>
       <c r="X13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.3</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-5</v>
+        <v>-4.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,16 +2825,16 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
         <v>27</v>
@@ -2791,10 +2858,10 @@
         <v>28</v>
       </c>
       <c r="AS13" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AT13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU13" t="n">
         <v>18</v>
@@ -2806,22 +2873,22 @@
         <v>21</v>
       </c>
       <c r="AX13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB13" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="BC13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>5.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>7</v>
@@ -2967,7 +3034,7 @@
         <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="n">
         <v>19</v>
@@ -2976,13 +3043,13 @@
         <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW14" t="n">
         <v>7</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" t="n">
-        <v>0.26</v>
+        <v>0.265</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
@@ -3050,19 +3117,19 @@
         <v>37.1</v>
       </c>
       <c r="J15" t="n">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="K15" t="n">
         <v>0.46</v>
       </c>
       <c r="L15" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M15" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O15" t="n">
         <v>18.2</v>
@@ -3071,16 +3138,16 @@
         <v>24.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.739</v>
+        <v>0.737</v>
       </c>
       <c r="R15" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S15" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T15" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="U15" t="n">
         <v>20.1</v>
@@ -3098,31 +3165,31 @@
         <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA15" t="n">
         <v>22.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5</v>
+        <v>-4.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="n">
         <v>10</v>
@@ -3170,10 +3237,10 @@
         <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
         <v>3</v>
@@ -3185,7 +3252,7 @@
         <v>9</v>
       </c>
       <c r="BC15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3313,7 +3380,7 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
@@ -3325,13 +3392,13 @@
         <v>28</v>
       </c>
       <c r="AO16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP16" t="n">
         <v>14</v>
       </c>
       <c r="AQ16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
         <v>19</v>
       </c>
       <c r="F17" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" t="n">
-        <v>0.373</v>
+        <v>0.38</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3426,13 +3493,13 @@
         <v>16.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.333</v>
+        <v>0.335</v>
       </c>
       <c r="O17" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P17" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="Q17" t="n">
         <v>0.743</v>
@@ -3450,28 +3517,28 @@
         <v>21.1</v>
       </c>
       <c r="V17" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W17" t="n">
         <v>6.7</v>
       </c>
       <c r="X17" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y17" t="n">
         <v>5.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.6</v>
+        <v>-6.7</v>
       </c>
       <c r="AD17" t="n">
         <v>3</v>
@@ -3486,10 +3553,10 @@
         <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
         <v>16</v>
@@ -3504,13 +3571,13 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ17" t="n">
         <v>20</v>
@@ -3531,22 +3598,22 @@
         <v>15</v>
       </c>
       <c r="AW17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA17" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BB17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC17" t="n">
         <v>27</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3698,10 +3765,10 @@
         <v>24</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT18" t="n">
         <v>13</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-5.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3850,7 +3917,7 @@
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3868,7 +3935,7 @@
         <v>19</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3901,7 +3968,7 @@
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -3942,64 +4009,64 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" t="n">
         <v>15</v>
       </c>
       <c r="G20" t="n">
-        <v>0.694</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J20" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
         <v>7.8</v>
       </c>
       <c r="M20" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.38</v>
+        <v>0.382</v>
       </c>
       <c r="O20" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P20" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.782</v>
+        <v>0.78</v>
       </c>
       <c r="R20" t="n">
         <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T20" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U20" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V20" t="n">
         <v>12.4</v>
       </c>
       <c r="W20" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
         <v>4</v>
@@ -4008,28 +4075,28 @@
         <v>4.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF20" t="n">
         <v>3</v>
       </c>
       <c r="AG20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
         <v>4</v>
@@ -4050,7 +4117,7 @@
         <v>7</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO20" t="n">
         <v>29</v>
@@ -4065,25 +4132,25 @@
         <v>13</v>
       </c>
       <c r="AS20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT20" t="n">
         <v>8</v>
       </c>
       <c r="AU20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX20" t="n">
         <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ20" t="n">
         <v>2</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" t="n">
         <v>36</v>
       </c>
       <c r="G21" t="n">
-        <v>0.294</v>
+        <v>0.28</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
@@ -4154,31 +4221,31 @@
         <v>17</v>
       </c>
       <c r="N21" t="n">
-        <v>0.334</v>
+        <v>0.335</v>
       </c>
       <c r="O21" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P21" t="n">
         <v>26.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.718</v>
+        <v>0.716</v>
       </c>
       <c r="R21" t="n">
         <v>12.4</v>
       </c>
       <c r="S21" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T21" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U21" t="n">
         <v>18.3</v>
       </c>
       <c r="V21" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W21" t="n">
         <v>6.3</v>
@@ -4190,7 +4257,7 @@
         <v>5.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA21" t="n">
         <v>21.2</v>
@@ -4199,7 +4266,7 @@
         <v>94.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>-5.9</v>
+        <v>-6</v>
       </c>
       <c r="AD21" t="n">
         <v>3</v>
@@ -4214,16 +4281,16 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ21" t="n">
         <v>19</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL21" t="n">
         <v>20</v>
@@ -4232,7 +4299,7 @@
         <v>18</v>
       </c>
       <c r="AN21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO21" t="n">
         <v>13</v>
@@ -4241,7 +4308,7 @@
         <v>10</v>
       </c>
       <c r="AQ21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR21" t="n">
         <v>5</v>
@@ -4259,7 +4326,7 @@
         <v>24</v>
       </c>
       <c r="AW21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4274,7 +4341,7 @@
         <v>16</v>
       </c>
       <c r="BB21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF22" t="n">
         <v>10</v>
@@ -4432,7 +4499,7 @@
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU22" t="n">
         <v>22</v>
@@ -4441,7 +4508,7 @@
         <v>13</v>
       </c>
       <c r="AW22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX22" t="n">
         <v>20</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -4488,46 +4555,46 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" t="n">
         <v>30</v>
       </c>
       <c r="G23" t="n">
-        <v>0.412</v>
+        <v>0.4</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J23" t="n">
-        <v>80.09999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L23" t="n">
         <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.312</v>
+        <v>0.311</v>
       </c>
       <c r="O23" t="n">
         <v>18.3</v>
       </c>
       <c r="P23" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.707</v>
+        <v>0.704</v>
       </c>
       <c r="R23" t="n">
         <v>13</v>
@@ -4539,7 +4606,7 @@
         <v>42</v>
       </c>
       <c r="U23" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V23" t="n">
         <v>15.3</v>
@@ -4551,31 +4618,31 @@
         <v>5.1</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>-1.1</v>
+        <v>-1.5</v>
       </c>
       <c r="AD23" t="n">
         <v>3</v>
       </c>
       <c r="AE23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH23" t="n">
         <v>25</v>
@@ -4587,7 +4654,7 @@
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4599,10 +4666,10 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ23" t="n">
         <v>29</v>
@@ -4626,10 +4693,10 @@
         <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ23" t="n">
         <v>9</v>
@@ -4638,10 +4705,10 @@
         <v>17</v>
       </c>
       <c r="BB23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>5.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4760,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4817,7 +4884,7 @@
         <v>5</v>
       </c>
       <c r="BA24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" t="n">
         <v>28</v>
       </c>
       <c r="F25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="H25" t="n">
         <v>48.8</v>
@@ -4876,13 +4943,13 @@
         <v>0.454</v>
       </c>
       <c r="L25" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M25" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.38</v>
+        <v>0.382</v>
       </c>
       <c r="O25" t="n">
         <v>17.8</v>
@@ -4894,22 +4961,22 @@
         <v>0.771</v>
       </c>
       <c r="R25" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S25" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="T25" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U25" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V25" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W25" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="X25" t="n">
         <v>4.4</v>
@@ -4918,28 +4985,28 @@
         <v>3.9</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA25" t="n">
         <v>20.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>96</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
         <v>1</v>
@@ -4954,13 +5021,13 @@
         <v>14</v>
       </c>
       <c r="AL25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM25" t="n">
         <v>16</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="n">
         <v>21</v>
@@ -4972,16 +5039,16 @@
         <v>10</v>
       </c>
       <c r="AR25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU25" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AV25" t="n">
         <v>6</v>
@@ -4990,7 +5057,7 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AY25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -5034,58 +5101,58 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26" t="n">
         <v>23</v>
       </c>
       <c r="F26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G26" t="n">
-        <v>0.469</v>
+        <v>0.479</v>
       </c>
       <c r="H26" t="n">
         <v>48.2</v>
       </c>
       <c r="I26" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J26" t="n">
-        <v>79.09999999999999</v>
+        <v>78.8</v>
       </c>
       <c r="K26" t="n">
         <v>0.457</v>
       </c>
       <c r="L26" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M26" t="n">
         <v>17.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.37</v>
+        <v>0.373</v>
       </c>
       <c r="O26" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="P26" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.791</v>
+        <v>0.792</v>
       </c>
       <c r="R26" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S26" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="T26" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="U26" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="V26" t="n">
         <v>16.4</v>
@@ -5100,7 +5167,7 @@
         <v>5.3</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA26" t="n">
         <v>23.2</v>
@@ -5109,28 +5176,28 @@
         <v>100.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.9</v>
+        <v>-1.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG26" t="n">
         <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK26" t="n">
         <v>12</v>
@@ -5142,7 +5209,7 @@
         <v>17</v>
       </c>
       <c r="AN26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5157,7 +5224,7 @@
         <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT26" t="n">
         <v>29</v>
@@ -5175,7 +5242,7 @@
         <v>25</v>
       </c>
       <c r="AY26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ26" t="n">
         <v>24</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>5.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF27" t="n">
         <v>6</v>
@@ -5306,7 +5373,7 @@
         <v>6</v>
       </c>
       <c r="AH27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5330,7 +5397,7 @@
         <v>25</v>
       </c>
       <c r="AP27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ27" t="n">
         <v>15</v>
@@ -5345,7 +5412,7 @@
         <v>19</v>
       </c>
       <c r="AU27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV27" t="n">
         <v>5</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -5476,19 +5543,19 @@
         <v>-7</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
       </c>
       <c r="AF28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5527,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV28" t="n">
         <v>27</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>3.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG29" t="n">
         <v>15</v>
@@ -5691,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="AO29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP29" t="n">
         <v>29</v>
@@ -5706,7 +5773,7 @@
         <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -5762,37 +5829,37 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" t="n">
         <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>0.635</v>
+        <v>0.627</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="J30" t="n">
-        <v>80.90000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K30" t="n">
         <v>0.491</v>
       </c>
       <c r="L30" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="M30" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="N30" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O30" t="n">
         <v>21.4</v>
@@ -5801,13 +5868,13 @@
         <v>28.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R30" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S30" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T30" t="n">
         <v>40.8</v>
@@ -5816,7 +5883,7 @@
         <v>26.2</v>
       </c>
       <c r="V30" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W30" t="n">
         <v>9.300000000000001</v>
@@ -5828,19 +5895,19 @@
         <v>5.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>6</v>
@@ -5879,28 +5946,28 @@
         <v>4</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AS30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6034,19 +6101,19 @@
         <v>16</v>
       </c>
       <c r="AH31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ31" t="n">
         <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM31" t="n">
         <v>10</v>
@@ -6079,19 +6146,19 @@
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX31" t="n">
         <v>15</v>
       </c>
       <c r="AY31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ31" t="n">
         <v>4</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-9-2007-08</t>
+          <t>2008-02-09</t>
         </is>
       </c>
     </row>
